--- a/files/hy 메뉴.xlsx
+++ b/files/hy 메뉴.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaFullstack_JE\repos\Java-Team-Project\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA_LAB\JAVA_STUDY\git\Java-Team-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="53">
   <si>
     <t>커피</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,23 +218,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no hot,decaf,milk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no hot,decaf, ice, milk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no hot,ice,milk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no hot, milk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>no hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onlyDecafShotCup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onlyShotIceCup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onlyshotcup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,9 +579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -639,7 +639,7 @@
         <v>41</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>45</v>
@@ -694,7 +694,7 @@
         <v>41</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
@@ -850,10 +850,10 @@
         <v>41</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -879,10 +879,10 @@
         <v>41</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -894,9 +894,6 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
       <c r="E14" t="s">
         <v>41</v>
       </c>
@@ -907,16 +904,13 @@
         <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
       <c r="E15" t="s">
         <v>41</v>
       </c>
@@ -928,9 +922,6 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
       <c r="E16" t="s">
         <v>41</v>
       </c>
@@ -942,9 +933,6 @@
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
       <c r="E17" t="s">
         <v>41</v>
       </c>
@@ -956,9 +944,6 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
       <c r="E18" t="s">
         <v>41</v>
       </c>
@@ -970,9 +955,6 @@
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
       <c r="E19" t="s">
         <v>41</v>
       </c>
@@ -987,9 +969,6 @@
       <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
       <c r="E20" t="s">
         <v>41</v>
       </c>
@@ -1010,9 +989,6 @@
       <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
       <c r="E21" t="s">
         <v>41</v>
       </c>
@@ -1027,9 +1003,6 @@
       <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
       <c r="E22" t="s">
         <v>41</v>
       </c>
@@ -1172,9 +1145,6 @@
       <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="D32" t="s">
-        <v>41</v>
-      </c>
       <c r="E32" t="s">
         <v>41</v>
       </c>
@@ -1188,16 +1158,13 @@
         <v>8</v>
       </c>
       <c r="K32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" t="s">
-        <v>41</v>
-      </c>
       <c r="E33" t="s">
         <v>41</v>
       </c>
@@ -1211,9 +1178,6 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
-      </c>
-      <c r="D34" t="s">
-        <v>41</v>
       </c>
       <c r="E34" t="s">
         <v>41</v>

--- a/files/hy 메뉴.xlsx
+++ b/files/hy 메뉴.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JAVA_LAB\JAVA_STUDY\git\Java-Team-Project\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaFullstack_JE\repos\Java-Team-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -581,7 +581,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
